--- a/biology/Zoologie/Hallopodidae/Hallopodidae.xlsx
+++ b/biology/Zoologie/Hallopodidae/Hallopodidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Hallopodidae forment une petite famille fossile de « reptiles » crocodylomorphes[2].
-Leurs fossiles sont connus dans les Amériques, en Argentine et aux États-Unis (Colorado et Wyoming), dans des sédiments du Jurassique supérieur, de l'Oxfordien au Tithonien, soit il y a environ entre 161,5 et ≃145,0 millions d'années[2]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Hallopodidae forment une petite famille fossile de « reptiles » crocodylomorphes.
+Leurs fossiles sont connus dans les Amériques, en Argentine et aux États-Unis (Colorado et Wyoming), dans des sédiments du Jurassique supérieur, de l'Oxfordien au Tithonien, soit il y a environ entre 161,5 et ≃145,0 millions d'années. 
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des crocodylomorphes basaux de taille modeste, de l'ordre de 1 mètre, avec une morphologie apparente de crocodiles « hauts sur pattes ».
 </t>
@@ -543,7 +557,9 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>† Hallopus Marsh, 1881 (genre type)
 † Macelognathus Marsh, 1884
@@ -575,9 +591,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Hallopodidae sont des crocodylomorphes basaux, placés en groupe frère du grand groupe des Crocodyliformes[2],[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Hallopodidae sont des crocodylomorphes basaux, placés en groupe frère du grand groupe des Crocodyliformes,.
 </t>
         </is>
       </c>
